--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/76.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/76.xlsx
@@ -479,13 +479,13 @@
         <v>-6.746239582533169</v>
       </c>
       <c r="E2" t="n">
-        <v>-12.38282057226918</v>
+        <v>-12.69009691996449</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1414203414572329</v>
+        <v>1.399669198364158</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.416248763665315</v>
+        <v>-9.771508401275552</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.424277080689073</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.98375727270441</v>
+        <v>-13.27873994803134</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1742558369842819</v>
+        <v>1.463900036105666</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.300002206733629</v>
+        <v>-9.493349335100239</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-6.04297759854127</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.31579116507342</v>
+        <v>-13.42360627897504</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141511987577125</v>
+        <v>1.350180293622434</v>
       </c>
       <c r="G4" t="n">
-        <v>-8.680003113360849</v>
+        <v>-8.801381853006491</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-5.628148986535499</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.91566738897847</v>
+        <v>-14.13419101570972</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1463299550228802</v>
+        <v>1.404591904232647</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.458127857102118</v>
+        <v>-8.659762413167542</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-5.176211464447479</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.26241702974159</v>
+        <v>-14.50870943080014</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1226067022736726</v>
+        <v>1.539652100347894</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.990575538018397</v>
+        <v>-8.167662026255583</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.689183734143151</v>
       </c>
       <c r="E7" t="n">
-        <v>-14.99017886780461</v>
+        <v>-15.36006260768906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3794384071198128</v>
+        <v>1.89589366067126</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.50030807350428</v>
+        <v>-7.662155121233698</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-4.154588004300542</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.7578722295349</v>
+        <v>-16.21461030647136</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2448626262097106</v>
+        <v>1.721451817608102</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.223274945373356</v>
+        <v>-7.383184332282199</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.567087572196424</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.32609126516866</v>
+        <v>-16.88329967411252</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2606912203453574</v>
+        <v>1.700661240695441</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.861783371610458</v>
+        <v>-6.997157782993906</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.912601141447898</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.04636430600622</v>
+        <v>-17.62517501463893</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3352780696346708</v>
+        <v>1.75193069862364</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.68226171504471</v>
+        <v>-6.681672561416833</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.193811731466822</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.51457124023203</v>
+        <v>-18.06525968236071</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2193980971825534</v>
+        <v>1.552953880035087</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.425390733290045</v>
+        <v>-6.375731628611378</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.429617522508678</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.04810876563804</v>
+        <v>-18.62524365950701</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3027306047701398</v>
+        <v>1.688930537349254</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.131232873042143</v>
+        <v>-6.118886831462396</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.6495440858457223</v>
       </c>
       <c r="E13" t="n">
-        <v>-18.38082345775483</v>
+        <v>-18.94549447931848</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2946264693111114</v>
+        <v>1.692098874636952</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.541765029896269</v>
+        <v>-5.549149088699003</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09777623971313075</v>
       </c>
       <c r="E14" t="n">
-        <v>-19.27209506600817</v>
+        <v>-20.02983827757875</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5759538727741211</v>
+        <v>1.971488617279386</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.168856968055386</v>
+        <v>-5.281110372620345</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.769621887039052</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.93135797560329</v>
+        <v>-20.74818674989858</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7266070015738629</v>
+        <v>2.237498026417577</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.007468150925428</v>
+        <v>-5.050162150492297</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.333439308078173</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.74723101179113</v>
+        <v>-21.58440522470246</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9059191812941432</v>
+        <v>2.34401700233786</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.673378767010263</v>
+        <v>-4.794613491324646</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.76837197061836</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.59972321902729</v>
+        <v>-22.58867649878275</v>
       </c>
       <c r="F17" t="n">
-        <v>1.221417495174058</v>
+        <v>2.717095264115686</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.547548644398433</v>
+        <v>-4.805087333598027</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.078876378502033</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.32002244447053</v>
+        <v>-23.39606572272915</v>
       </c>
       <c r="F18" t="n">
-        <v>1.132180359004853</v>
+        <v>2.565695874053965</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.42563312033628</v>
+        <v>-4.72273674872357</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.280342066373287</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.7491226701081</v>
+        <v>-23.71021552941637</v>
       </c>
       <c r="F19" t="n">
-        <v>1.572592334297676</v>
+        <v>3.193969302822716</v>
       </c>
       <c r="G19" t="n">
-        <v>-3.979735470152774</v>
+        <v>-4.314034330913407</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.399689000299936</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.20673793133495</v>
+        <v>-24.26498877003167</v>
       </c>
       <c r="F20" t="n">
-        <v>1.728992984044936</v>
+        <v>3.264746291985087</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.635303166992644</v>
+        <v>-4.099071810555107</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.471281380082154</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.75068383750014</v>
+        <v>-24.66155462310755</v>
       </c>
       <c r="F21" t="n">
-        <v>1.81723510519817</v>
+        <v>3.240316054882427</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.566581669376424</v>
+        <v>-4.240638881182691</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.521408308927335</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.19110890509581</v>
+        <v>-25.12479957455635</v>
       </c>
       <c r="F22" t="n">
-        <v>1.970938740560034</v>
+        <v>3.336884880642998</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.539899556184986</v>
+        <v>-4.274194453366035</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.575895396949978</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.52120513664425</v>
+        <v>-25.41440131341533</v>
       </c>
       <c r="F23" t="n">
-        <v>2.184866968993838</v>
+        <v>3.538768190462414</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.271389517204026</v>
+        <v>-4.033479373318059</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.651116564195164</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.28328190045544</v>
+        <v>-26.38934582913014</v>
       </c>
       <c r="F24" t="n">
-        <v>2.403403688027929</v>
+        <v>3.759111647288663</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.327332927246722</v>
+        <v>-4.149856853278163</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.755277499810464</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.39074352218033</v>
+        <v>-26.39141441297913</v>
       </c>
       <c r="F25" t="n">
-        <v>2.603139860181302</v>
+        <v>4.026351732893976</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.360953960944275</v>
+        <v>-4.000224924100075</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.895367589146175</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.48426184137877</v>
+        <v>-26.48247137924334</v>
       </c>
       <c r="F26" t="n">
-        <v>2.682505400007845</v>
+        <v>4.126115080547929</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.405245221457834</v>
+        <v>-4.028163898364318</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.069810972240105</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.44240574919378</v>
+        <v>-26.35251718123637</v>
       </c>
       <c r="F27" t="n">
-        <v>2.626365605422524</v>
+        <v>4.008467647212179</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.508857706147254</v>
+        <v>-4.215488567423735</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.275922221370167</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.35847099567547</v>
+        <v>-26.32659442160975</v>
       </c>
       <c r="F28" t="n">
-        <v>2.638934216150581</v>
+        <v>4.02645647131671</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.486352037562327</v>
+        <v>-4.28083225090679</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.505852017903661</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.47288463020931</v>
+        <v>-26.41746809563417</v>
       </c>
       <c r="F29" t="n">
-        <v>2.801828648107337</v>
+        <v>4.240725099624399</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.595633489382214</v>
+        <v>-4.374704062281966</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.747165726489591</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.41779221985133</v>
+        <v>-26.50311794082474</v>
       </c>
       <c r="F30" t="n">
-        <v>2.797063049872949</v>
+        <v>4.231115349338571</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.831871001858319</v>
+        <v>-4.779046743245834</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>3.988698156591141</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.86974842289668</v>
+        <v>-25.86244610126488</v>
       </c>
       <c r="F31" t="n">
-        <v>2.503350327921666</v>
+        <v>3.880634402265565</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.809522440907493</v>
+        <v>-4.808923378330652</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>4.215829305735671</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.72832536760036</v>
+        <v>-25.76090220042445</v>
       </c>
       <c r="F32" t="n">
-        <v>2.627648651101013</v>
+        <v>4.042429080783616</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.141883640847551</v>
+        <v>-4.989453142215213</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>4.416074092815268</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.68416503011521</v>
+        <v>-25.86561443855257</v>
       </c>
       <c r="F33" t="n">
-        <v>2.473761723499365</v>
+        <v>3.980581042159302</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.261154519735675</v>
+        <v>-5.209482383773262</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>4.581746329180185</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.15009072029268</v>
+        <v>-25.31911553333324</v>
       </c>
       <c r="F34" t="n">
-        <v>2.298481973054336</v>
+        <v>3.760630354418304</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.341685274515132</v>
+        <v>-5.271081668643583</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>4.706286705231817</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.54633917474648</v>
+        <v>-24.64833139723741</v>
       </c>
       <c r="F35" t="n">
-        <v>2.362032011048075</v>
+        <v>3.949630838241461</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.405588804685597</v>
+        <v>-5.487248680863321</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>4.790197262220284</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.20227345606592</v>
+        <v>-24.39504770646138</v>
       </c>
       <c r="F36" t="n">
-        <v>2.267741245981964</v>
+        <v>3.870396221443335</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.389904225881209</v>
+        <v>-5.249374630532001</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>4.835977126457359</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.79560034519623</v>
+        <v>-24.0792482696161</v>
       </c>
       <c r="F37" t="n">
-        <v>2.143076338323048</v>
+        <v>3.626146219628094</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.434535886268653</v>
+        <v>-5.38810067144293</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>4.849576470934873</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.17739489731276</v>
+        <v>-23.38065608228444</v>
       </c>
       <c r="F38" t="n">
-        <v>2.291333575702754</v>
+        <v>3.880686771476932</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.20179401865129</v>
+        <v>-5.014564179065644</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>4.843513649849088</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.79502110051731</v>
+        <v>-23.04559786795899</v>
       </c>
       <c r="F39" t="n">
-        <v>2.07284922588003</v>
+        <v>3.495615960296085</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.191189253349491</v>
+        <v>-4.910886232862016</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>4.828070697062254</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.31106412597291</v>
+        <v>-22.50310520740922</v>
       </c>
       <c r="F40" t="n">
-        <v>2.173686142367004</v>
+        <v>3.78328003833449</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.239578404652511</v>
+        <v>-4.852926608181694</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>4.81357257814501</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.75845111532649</v>
+        <v>-21.95970917796339</v>
       </c>
       <c r="F41" t="n">
-        <v>2.185573953347291</v>
+        <v>3.727716305074205</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.123488955354926</v>
+        <v>-4.844063119157846</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>4.808434068947943</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.11114147822587</v>
+        <v>-21.31263520231392</v>
       </c>
       <c r="F42" t="n">
-        <v>2.142552646209379</v>
+        <v>3.589095002586009</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.308980702016501</v>
+        <v>-5.037907755032442</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>4.815598001265839</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.60901238733715</v>
+        <v>-20.76490562062746</v>
       </c>
       <c r="F43" t="n">
-        <v>2.007178234825931</v>
+        <v>3.539684651661335</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.146177916179637</v>
+        <v>-4.71651790487375</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>4.836709306407958</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.20138353836001</v>
+        <v>-20.40413412352086</v>
       </c>
       <c r="F44" t="n">
-        <v>1.925272788248093</v>
+        <v>3.386164308539255</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.059297394521943</v>
+        <v>-4.506176967418579</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>4.865935831350821</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.94622764827761</v>
+        <v>-20.224704113075</v>
       </c>
       <c r="F45" t="n">
-        <v>1.891363723888023</v>
+        <v>3.177891954933076</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.297786783086825</v>
+        <v>-4.704263509413894</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>4.896569813905567</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.31643551237922</v>
+        <v>-19.52037749709867</v>
       </c>
       <c r="F46" t="n">
-        <v>1.998432576527658</v>
+        <v>3.324525746760409</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.239146358658734</v>
+        <v>-4.641224071230983</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>4.91991732537075</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.94259789703657</v>
+        <v>-19.11955664559922</v>
       </c>
       <c r="F47" t="n">
-        <v>1.940381305727445</v>
+        <v>3.151838272278042</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.085586738628129</v>
+        <v>-4.411467248661532</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>4.92224148930001</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.56790928200922</v>
+        <v>-18.70182053882827</v>
       </c>
       <c r="F48" t="n">
-        <v>1.912389962251835</v>
+        <v>3.144716059532143</v>
       </c>
       <c r="G48" t="n">
-        <v>-4.060449517172015</v>
+        <v>-4.397379930803835</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>4.891786266875822</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.07672535629618</v>
+        <v>-18.15987775499786</v>
       </c>
       <c r="F49" t="n">
-        <v>1.858371120726873</v>
+        <v>3.092634878827756</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.002489892491694</v>
+        <v>-4.385426658309339</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>4.814725211715193</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.69128796063577</v>
+        <v>-17.73631557346234</v>
       </c>
       <c r="F50" t="n">
-        <v>1.734177535970259</v>
+        <v>2.956396375456755</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.157057619841112</v>
+        <v>-4.688173069221413</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>4.681954568109439</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.1374049966137</v>
+        <v>-17.11337071195017</v>
       </c>
       <c r="F51" t="n">
-        <v>1.630146097589904</v>
+        <v>2.749223775289281</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.182823271833628</v>
+        <v>-4.651344421327638</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>4.48846092570864</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.66283520320681</v>
+        <v>-16.56671469909674</v>
       </c>
       <c r="F52" t="n">
-        <v>1.756591558435294</v>
+        <v>2.9001518424487</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.294683907313336</v>
+        <v>-4.738958111944468</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>4.228735902119655</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.10704076296986</v>
+        <v>-16.00642959898507</v>
       </c>
       <c r="F53" t="n">
-        <v>1.884581911016008</v>
+        <v>3.048723295096607</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.404567605063943</v>
+        <v>-4.77492266785069</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>3.905126067822648</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.73855789948948</v>
+        <v>-15.61169666830703</v>
       </c>
       <c r="F54" t="n">
-        <v>1.778534257998027</v>
+        <v>2.916203005732656</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.519413285591564</v>
+        <v>-4.929320195263165</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>3.51741796022284</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.30571327523917</v>
+        <v>-15.27784294584302</v>
       </c>
       <c r="F55" t="n">
-        <v>1.503098390813794</v>
+        <v>2.54616215821411</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.644562608455623</v>
+        <v>-4.998054785182227</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>3.06812772441093</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.111750808639</v>
+        <v>-14.96921809095501</v>
       </c>
       <c r="F56" t="n">
-        <v>1.604013861117819</v>
+        <v>2.638515262459646</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.722330887335477</v>
+        <v>-4.984753005495033</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>2.565643945728434</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.77399557992815</v>
+        <v>-14.62986560129747</v>
       </c>
       <c r="F57" t="n">
-        <v>1.557614739846742</v>
+        <v>2.617410470278783</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.867498341244535</v>
+        <v>-5.172548997456753</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>2.013729039471527</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.46534454043446</v>
+        <v>-14.23755474664515</v>
       </c>
       <c r="F58" t="n">
-        <v>1.635671049389112</v>
+        <v>2.729532951815326</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.251561045106569</v>
+        <v>-5.63817674802274</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>1.423082979445774</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.9982504519502</v>
+        <v>-13.64260122860859</v>
       </c>
       <c r="F59" t="n">
-        <v>1.558243170383145</v>
+        <v>2.632597541575186</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.441294697888863</v>
+        <v>-5.804606101746762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.8026026769711572</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.55986778359784</v>
+        <v>-13.2019797764703</v>
       </c>
       <c r="F60" t="n">
-        <v>1.357223952551283</v>
+        <v>2.38976150846685</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.501021783452818</v>
+        <v>-5.726877099775434</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1591587057528256</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.62705748178158</v>
+        <v>-13.48274421091111</v>
       </c>
       <c r="F61" t="n">
-        <v>1.380554436215238</v>
+        <v>2.457160683496056</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.806020070453668</v>
+        <v>-6.072828110065204</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4919001125646818</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.33581920506739</v>
+        <v>-13.22961762776918</v>
       </c>
       <c r="F62" t="n">
-        <v>1.308167093803335</v>
+        <v>2.421785281217713</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.161410631092322</v>
+        <v>-6.607269004367303</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.14221086939478</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.14825887455682</v>
+        <v>-13.03367822343991</v>
       </c>
       <c r="F63" t="n">
-        <v>1.247811577702978</v>
+        <v>2.408431132319152</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.128797704713582</v>
+        <v>-6.525717049966191</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.778900539117429</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.85323692232136</v>
+        <v>-12.57387654763849</v>
       </c>
       <c r="F64" t="n">
-        <v>1.114453380957156</v>
+        <v>2.188401890761104</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.094613701993836</v>
+        <v>-6.505895303463818</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.386492503558294</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.90483368782061</v>
+        <v>-12.75588574174417</v>
       </c>
       <c r="F65" t="n">
-        <v>1.183122509362009</v>
+        <v>2.28591336232628</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.075590585964808</v>
+        <v>-6.44932346288472</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.95516754467503</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.68068037086741</v>
+        <v>-12.33486346695994</v>
       </c>
       <c r="F66" t="n">
-        <v>1.136762664999457</v>
+        <v>2.198509148554916</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.148972943392683</v>
+        <v>-6.627326412320828</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-3.46858975608393</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.59966520088281</v>
+        <v>-12.27406281256297</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9278095116455092</v>
+        <v>1.994295408829673</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.344441024819653</v>
+        <v>-6.932979314463765</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-3.916250815497841</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.60302992271314</v>
+        <v>-12.31582725862807</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9419884756230985</v>
+        <v>2.048209511931901</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.129111919981784</v>
+        <v>-6.723070423002371</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.291659431438358</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.629594205179</v>
+        <v>-12.42171780401195</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8714864248204036</v>
+        <v>1.823493225956515</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.947783525623878</v>
+        <v>-6.576253338935254</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.58828377816979</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.54115569948314</v>
+        <v>-12.24421236208383</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6014184018012784</v>
+        <v>1.602311861748394</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.725476223371369</v>
+        <v>-6.356211005074364</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.810782960720819</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.35339898442995</v>
+        <v>-11.97270418575211</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5926072819887966</v>
+        <v>1.492284148666529</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.761794271454318</v>
+        <v>-6.466840964086949</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.963838964993773</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.54500483651861</v>
+        <v>-12.15459554913221</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7101106999932881</v>
+        <v>1.708987945302779</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.616168586945799</v>
+        <v>-6.306787561846848</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.056141704153175</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.71261249749838</v>
+        <v>-12.35557549005555</v>
       </c>
       <c r="F73" t="n">
-        <v>0.575246888420668</v>
+        <v>1.525905182364081</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.540324876583679</v>
+        <v>-6.200883924160126</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.099154228631293</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.08123937631002</v>
+        <v>-12.78032907114967</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5474388371848418</v>
+        <v>1.525014905770844</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.467125811395589</v>
+        <v>-6.001514336486322</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.101225027282986</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.53715263816745</v>
+        <v>-13.27981351686436</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4952921949662468</v>
+        <v>1.508597158007319</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.350722146829803</v>
+        <v>-6.000977552069811</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.070373207321034</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.55092574075695</v>
+        <v>-13.3042044770585</v>
       </c>
       <c r="F76" t="n">
-        <v>0.4857348138917868</v>
+        <v>1.610533827932998</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.158828264078624</v>
+        <v>-5.826326232161185</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.007136134107289</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.93642859793157</v>
+        <v>-13.75256348017625</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4160968550766458</v>
+        <v>1.450833917869624</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.971647610350466</v>
+        <v>-5.630622489283064</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.909767496250653</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.78918265122456</v>
+        <v>-14.56653813245204</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2470621330871206</v>
+        <v>1.270683830767473</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.843500150135651</v>
+        <v>-5.491830986857926</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.772165771548059</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.35279319625802</v>
+        <v>-15.06998954592778</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1894560005835259</v>
+        <v>1.162672332323233</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.94755777312169</v>
+        <v>-5.834286352288955</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.58443494251271</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.90174036210875</v>
+        <v>-15.66350291065174</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1756305287826631</v>
+        <v>1.184601939583124</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.508677597261348</v>
+        <v>-5.255043597662469</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.338687202170317</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.61521849777146</v>
+        <v>-16.49981303157552</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2038706260122662</v>
+        <v>1.313129076580349</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.092211443866042</v>
+        <v>-4.908883110527231</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.024102485157822</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.57725400288433</v>
+        <v>-17.51718970080037</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.04421542053560101</v>
+        <v>0.963472944586371</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.996572171607233</v>
+        <v>-4.91084695595349</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.639317595114536</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.28323024901873</v>
+        <v>-18.17892705563257</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1484825203671074</v>
+        <v>0.8406671439309805</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.799166429359688</v>
+        <v>-4.667526507640011</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.186078076766777</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.23966224851534</v>
+        <v>-19.15323004850814</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.2650563848698363</v>
+        <v>0.8070330179305862</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.53734655713085</v>
+        <v>-4.445101374661927</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.668630488008865</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.20045398485825</v>
+        <v>-20.08311085784174</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.2608799402633257</v>
+        <v>0.8586035988241452</v>
       </c>
       <c r="G85" t="n">
-        <v>-3.590213276005739</v>
+        <v>-4.599800025039762</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.101274787821255</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.48514929350546</v>
+        <v>-21.37793960888845</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.4766018141864461</v>
+        <v>0.6147332737913137</v>
       </c>
       <c r="G86" t="n">
-        <v>-3.227700502621186</v>
+        <v>-4.086738861278201</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-1.495525650151131</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.55158282147826</v>
+        <v>-22.3387444375342</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.4725170156998276</v>
+        <v>0.6503574298236504</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.47242182733873</v>
+        <v>-4.375253939001318</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.8691353553533846</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.11959556362042</v>
+        <v>-23.89354704610906</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.3587710886109115</v>
+        <v>0.8795643756737487</v>
       </c>
       <c r="G88" t="n">
-        <v>-3.233958623379531</v>
+        <v>-4.104924069925358</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.2436330976197455</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.43012198577436</v>
+        <v>-25.36640493119756</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7136641417415801</v>
+        <v>0.4002551686381573</v>
       </c>
       <c r="G89" t="n">
-        <v>-3.368390388958375</v>
+        <v>-4.269795439611214</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.3628966007574692</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.94181164109142</v>
+        <v>-26.79579637085153</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6465791819805757</v>
+        <v>0.5429612696129714</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.171050108225038</v>
+        <v>-3.990458066180147</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.9261331073353753</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.62715760130113</v>
+        <v>-28.51535251838667</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7626948158838441</v>
+        <v>0.406578750910711</v>
       </c>
       <c r="G91" t="n">
-        <v>-3.307039857842046</v>
+        <v>-4.083439600962086</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>1.426314938728776</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.31122051583236</v>
+        <v>-30.24906144529372</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.9911031312605971</v>
+        <v>0.04643568434051028</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.60560982414761</v>
+        <v>-4.501660122938183</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>1.846703559165176</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.12868090401793</v>
+        <v>-32.04298187296987</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.063830873546386</v>
+        <v>0.09343705154230687</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.571792405907431</v>
+        <v>-4.383803212756965</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.170027152670763</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.98283901706886</v>
+        <v>-34.00034660932212</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9798699354223962</v>
+        <v>0.1110069219559033</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.007412598360182</v>
+        <v>-4.903803297024641</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.388704980987311</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.84913369485407</v>
+        <v>-35.96385163570715</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.360947594236517</v>
+        <v>-0.3089155993896187</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.044071046317016</v>
+        <v>-4.852717131336227</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>2.492280625175026</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.89426922945725</v>
+        <v>-38.10723181083465</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.544292203232049</v>
+        <v>-0.3346550667764521</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.48935335826696</v>
+        <v>-5.217874549894808</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>2.484488493270538</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.07259276086932</v>
+        <v>-40.28944375619071</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.709739634242941</v>
+        <v>-0.591460587016909</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.638212841577387</v>
+        <v>-5.31528128303725</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>2.360423668607114</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.27580475998351</v>
+        <v>-42.42043861282993</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.831458773762468</v>
+        <v>-0.6221096679693897</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.091311258323842</v>
+        <v>-5.757853488298958</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>2.146426347235085</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.49022377033021</v>
+        <v>-44.85973101678613</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.078065390089221</v>
+        <v>-0.9157307438007802</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.232551021380383</v>
+        <v>-5.842311933930933</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>1.834896593647598</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.64907904741663</v>
+        <v>-47.05555895709758</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.265167490000328</v>
+        <v>-1.17088663388318</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.315713329031027</v>
+        <v>-6.057837423311427</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>1.492531102199383</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.64803802989705</v>
+        <v>-49.03473546998416</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.377892217467589</v>
+        <v>-1.246612513519723</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.804527547929712</v>
+        <v>-6.468451317336482</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>1.077055406413826</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.94500400966084</v>
+        <v>-51.41440552679912</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.730415563783905</v>
+        <v>-1.686356781367618</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.131075765408043</v>
+        <v>-6.772873543012296</v>
       </c>
     </row>
   </sheetData>
